--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>44.21177412056858</v>
+        <v>40.66430609017925</v>
       </c>
       <c r="G2" t="n">
-        <v>43.46973396671299</v>
+        <v>39.87941143521427</v>
       </c>
       <c r="H2" t="n">
-        <v>44.97164715220799</v>
+        <v>41.44174066732725</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00115849978645227</v>
+        <v>0.001004674904283018</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008203426789649529</v>
+        <v>0.000742514493211707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001812724574110096</v>
+        <v>0.001505250748018314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.056598557396877</v>
+        <v>0.05916826854002362</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05568747760487808</v>
+        <v>0.05812848150616134</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05761608054543739</v>
+        <v>0.06022004766070234</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001073953871648288</v>
+        <v>9.923077592035763e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>1.636452262334488e-05</v>
+        <v>2.056593222115246e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002795582690204991</v>
+        <v>2.898131126501918e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002550746475250601</v>
+        <v>8.334097948465038e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.339489406058281e-05</v>
+        <v>1.915140631978847e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006205624531588219</v>
+        <v>2.42776095991956e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001165670219961198</v>
+        <v>1.017723696238532e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>1.172638011546814e-05</v>
+        <v>2.136343402779748e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002567152533230793</v>
+        <v>2.971676711397107e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.66431601325684</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.87941143727086</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41.44176964863852</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001013009002231483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000742516408352339</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00152952835761751</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.059178445776986</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05812848364250475</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06024976442781631</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>40.66430609017925</v>
+        <v>40.66648600430862</v>
       </c>
       <c r="G2" t="n">
-        <v>39.87941143521427</v>
+        <v>39.88288365155705</v>
       </c>
       <c r="H2" t="n">
-        <v>41.44174066732725</v>
+        <v>41.45609404728989</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001004674904283018</v>
+        <v>0.001007105421425071</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000742514493211707</v>
+        <v>0.0007436697211170377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001505250748018314</v>
+        <v>0.00150948627491243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05916826854002362</v>
+        <v>0.0591696037836178</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05812848150616134</v>
+        <v>0.05813250605528451</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06022004766070234</v>
+        <v>0.06022991057654577</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.923077592035763e-06</v>
+        <v>9.948548017113809e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.056593222115246e-09</v>
+        <v>1.969901810698318e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.898131126501918e-05</v>
+        <v>2.952146945724846e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.334097948465038e-06</v>
+        <v>8.363483748400061e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.915140631978847e-09</v>
+        <v>1.828839998814535e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>2.42776095991956e-05</v>
+        <v>2.475954830356532e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.017723696238532e-05</v>
+        <v>1.020524880153001e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>2.136343402779748e-09</v>
+        <v>2.06058932681671e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.971676711397107e-05</v>
+        <v>3.027756615299297e-05</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>40.66431601325684</v>
+        <v>40.66649595285663</v>
       </c>
       <c r="G4" t="n">
-        <v>39.87941143727086</v>
+        <v>39.88288365352695</v>
       </c>
       <c r="H4" t="n">
-        <v>41.44176964863852</v>
+        <v>41.45612356875935</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001013009002231483</v>
+        <v>0.001015468905173471</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000742516408352339</v>
+        <v>0.0007436715499570365</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00152952835761751</v>
+        <v>0.001534245823215995</v>
       </c>
       <c r="L4" t="n">
-        <v>0.059178445776986</v>
+        <v>0.05917980903241932</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05812848364250475</v>
+        <v>0.05813250811587384</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06024976442781631</v>
+        <v>0.06026018814269875</v>
       </c>
     </row>
   </sheetData>
